--- a/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
+++ b/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160133</t>
+          <t>519066</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方天元新产业股票(LOF)</t>
+          <t>汇添富蓝筹稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.45</t>
+          <t>101.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>74.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260103</t>
+          <t>519068</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城动力平衡混合</t>
+          <t>汇添富成长焦点混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>69.90</t>
+          <t>95.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1010</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519066</t>
+          <t>000001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富蓝筹稳健混合</t>
+          <t>华夏成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>74.73</t>
+          <t>48.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>75.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519068</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富成长焦点混合</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.05</t>
+          <t>16.78</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3944</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010023</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发制造业精选混合C</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>13.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1227</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>202007</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南方隆元产业主题混合</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.62</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0163</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>000925</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>汇添富外延增长主题股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>30.50</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.31</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9150</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>160133</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>南方天元新产业股票(LOF)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>31.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>202007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>南方隆元产业主题混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.45</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6394</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000925</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票A</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>13.41</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000001</t>
+          <t>260103</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏成长混合</t>
+          <t>景顺长城动力平衡混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>75.28</t>
+          <t>16.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4618</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>002124</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>广发新兴产业精选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.69</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000326</t>
+          <t>010433</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方中小盘成长股票</t>
+          <t>广发新兴产业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>11.79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.37</t>
+          <t>9.17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>8.41</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002124</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3676</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>007518</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>东方阿尔法优选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.41</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>3</v>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2653</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002411</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合A</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1688</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>011424</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>汇添富外延增长主题股票C</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.84</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>002411</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>华夏新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>160324</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>华夏磐晟灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.05</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1052,25 +1262,35 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>007519</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>东方阿尔法优选混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>90.80</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>000326</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>南方中小盘成长股票</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.28</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>10</v>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008212</t>
+          <t>000327</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏新机遇灵活配置混合C</t>
+          <t>南方潜力新蓝筹混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>23.36</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>5</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0512</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>010433</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>广发新兴产业精选灵活配置混合C</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>92.81</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>160324</t>
+          <t>008212</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华夏磐晟灵活配置混合（LOF）</t>
+          <t>华夏新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>92.40</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>007518</t>
+          <t>010023</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合A</t>
+          <t>广发制造业精选混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007519</t>
+          <t>011424</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>东方阿尔法优选混合C</t>
+          <t>汇添富外延增长主题股票C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.82</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>000327</t>
+          <t>006587</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南方潜力新蓝筹混合</t>
+          <t>南方优享分红灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1330,15 +1630,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000804</t>
+          <t>240001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信建投稳利混合A</t>
+          <t>华宝宝康消费品混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>14.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>73.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6981</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006844</t>
+          <t>001118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信建投稳利混合C</t>
+          <t>华宝事件驱动混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>83.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4775</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>007590</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>华宝绿色领先股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.36</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>240001</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华宝宝康消费品混合</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>73.91</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000458</t>
+          <t>002152</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>英大领先回报混合</t>
+          <t>华宝核心优势灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.41</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.46</t>
+          <t>8.52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>8.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001118</t>
+          <t>000458</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝事件驱动混合</t>
+          <t>英大领先回报混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83.23</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1584,15 +1974,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.33</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>93.33</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.87</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007590</t>
+          <t>000804</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华宝绿色领先股票</t>
+          <t>中信建投稳利混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.13</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002152</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华宝核心优势灵活配置混合</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>006844</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>中信建投稳利混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.26</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.01</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
+++ b/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2151,4 +2152,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7620</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4589</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2811</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
+++ b/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2398,4 +2399,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
+++ b/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2531,4 +2532,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>20.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
+++ b/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2540,7 +2541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2551,17 +2552,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2571,14 +2592,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2762</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2587,14 +2630,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.54</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -2603,14 +2736,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="5">
@@ -2619,13 +2752,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>29</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>20.63</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
+++ b/数据整理/stocks/A股/深证主板/002127-南极电商.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2673,7 +2674,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2684,17 +2685,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2704,14 +2725,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.48</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="3">
@@ -2720,14 +2815,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2831,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.54</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -2752,14 +2847,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="6">
@@ -2768,13 +2863,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>29</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>20.63</v>
       </c>
     </row>
